--- a/heart_failure/results/df/test_log.xlsx
+++ b/heart_failure/results/df/test_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>n_features</t>
+          <t>added_features</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -478,6 +478,11 @@
       <c r="D2" t="b">
         <v>0</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>['age', 'sex']</t>
+        </is>
+      </c>
       <c r="F2" t="n">
         <v>0.66</v>
       </c>
@@ -498,11 +503,165 @@
       <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['age', 'sex', 'ponytail']</t>
+        </is>
+      </c>
       <c r="F3" t="n">
         <v>0.66</v>
       </c>
       <c r="G3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['age', 'sex']</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['age', 'sex']</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['age', 'sex']</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>['age', 'sex', 'ponytail']</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>['age', 'sex']</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>['age', 'sex']</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G9" t="n">
         <v>100</v>
       </c>
     </row>

--- a/heart_failure/results/df/test_log.xlsx
+++ b/heart_failure/results/df/test_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>forced_features</t>
+          <t>features</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -462,6 +462,11 @@
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>robustness_iterations</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>results_df</t>
         </is>
       </c>
     </row>
@@ -480,7 +485,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['age', 'sex']</t>
+          <t>['age', 'anaemia', 'creatinine_phosphokinase', 'diabetes', 'ejection_fraction', 'high_blood_pressure', 'platelets', 'serum_creatinine', 'serum_sodium', 'sex', 'smoking']</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -488,6 +493,11 @@
       </c>
       <c r="G2" t="n">
         <v>100</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>df0</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -501,11 +511,11 @@
         <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['age', 'sex', 'ponytail']</t>
+          <t>['age', 'anaemia', 'creatinine_phosphokinase', 'diabetes', 'ejection_fraction', 'high_blood_pressure', 'platelets', 'serum_creatinine', 'serum_sodium', 'sex', 'smoking']</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -513,6 +523,11 @@
       </c>
       <c r="G3" t="n">
         <v>100</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>df1</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -520,17 +535,17 @@
         <v>0</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['age', 'sex']</t>
+          <t>['age', 'anaemia', 'creatinine_phosphokinase', 'diabetes', 'ejection_fraction', 'high_blood_pressure', 'platelets', 'serum_creatinine', 'serum_sodium', 'sex', 'smoking']</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -538,6 +553,11 @@
       </c>
       <c r="G4" t="n">
         <v>100</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>df2</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -545,17 +565,17 @@
         <v>0</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['age', 'sex']</t>
+          <t>['age', 'anaemia', 'creatinine_phosphokinase', 'diabetes', 'ejection_fraction', 'high_blood_pressure', 'platelets', 'serum_creatinine', 'serum_sodium', 'sex', 'smoking']</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -564,105 +584,10 @@
       <c r="G5" t="n">
         <v>100</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>['age', 'sex']</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="G6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>['age', 'sex', 'ponytail']</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="G7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>10</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>['age', 'sex']</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="G8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>10</v>
-      </c>
-      <c r="D9" t="n">
-        <v>12</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>['age', 'sex']</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="G9" t="n">
-        <v>100</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>df3</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/heart_failure/results/df/test_log.xlsx
+++ b/heart_failure/results/df/test_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O309"/>
+  <dimension ref="A1:O337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16183,6 +16183,1434 @@
         <v>0.446047572761632</v>
       </c>
     </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B310" t="b">
+        <v>1</v>
+      </c>
+      <c r="C310" t="n">
+        <v>1</v>
+      </c>
+      <c r="D310" t="b">
+        <v>1</v>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>['age', 'sex', 'smoking', 'anaemia', 'creatinine_phosphokinase']</t>
+        </is>
+      </c>
+      <c r="F310" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G310" t="n">
+        <v>100</v>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>df308</t>
+        </is>
+      </c>
+      <c r="I310" t="n">
+        <v>0.5260296125616279</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.4851007223555887</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.5482549217967169</v>
+      </c>
+      <c r="L310" t="n">
+        <v>0.3386625331830305</v>
+      </c>
+      <c r="M310" t="n">
+        <v>0.6908453918673394</v>
+      </c>
+      <c r="N310" t="n">
+        <v>0.5148992776444112</v>
+      </c>
+      <c r="O310" t="n">
+        <v>0.3929505496499342</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B311" t="b">
+        <v>1</v>
+      </c>
+      <c r="C311" t="n">
+        <v>1</v>
+      </c>
+      <c r="D311" t="b">
+        <v>1</v>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>['age', 'sex', 'smoking', 'anaemia', 'diabetes']</t>
+        </is>
+      </c>
+      <c r="F311" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G311" t="n">
+        <v>100</v>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>df309</t>
+        </is>
+      </c>
+      <c r="I311" t="n">
+        <v>0.4803338832778325</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.4868946783199977</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.4804163106799169</v>
+      </c>
+      <c r="L311" t="n">
+        <v>0.2988492820852526</v>
+      </c>
+      <c r="M311" t="n">
+        <v>0.6685923197061955</v>
+      </c>
+      <c r="N311" t="n">
+        <v>0.5131053216800023</v>
+      </c>
+      <c r="O311" t="n">
+        <v>0.3613175318498844</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B312" t="b">
+        <v>1</v>
+      </c>
+      <c r="C312" t="n">
+        <v>1</v>
+      </c>
+      <c r="D312" t="b">
+        <v>1</v>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>['age', 'sex', 'smoking', 'anaemia', 'ejection_fraction']</t>
+        </is>
+      </c>
+      <c r="F312" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G312" t="n">
+        <v>100</v>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>df310</t>
+        </is>
+      </c>
+      <c r="I312" t="n">
+        <v>0.6866386863217775</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.4643045864848649</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.7988425408221661</v>
+      </c>
+      <c r="L312" t="n">
+        <v>0.5358690837933119</v>
+      </c>
+      <c r="M312" t="n">
+        <v>0.7524857433477257</v>
+      </c>
+      <c r="N312" t="n">
+        <v>0.5356954135151351</v>
+      </c>
+      <c r="O312" t="n">
+        <v>0.4870759293967858</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B313" t="b">
+        <v>1</v>
+      </c>
+      <c r="C313" t="n">
+        <v>1</v>
+      </c>
+      <c r="D313" t="b">
+        <v>1</v>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>['age', 'sex', 'smoking', 'anaemia', 'high_blood_pressure']</t>
+        </is>
+      </c>
+      <c r="F313" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G313" t="n">
+        <v>100</v>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>df311</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>0.4265668635239418</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.4405797473965606</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.4286447038176425</v>
+      </c>
+      <c r="L313" t="n">
+        <v>0.2548508827573927</v>
+      </c>
+      <c r="M313" t="n">
+        <v>0.6187012595244686</v>
+      </c>
+      <c r="N313" t="n">
+        <v>0.5594202526034393</v>
+      </c>
+      <c r="O313" t="n">
+        <v>0.3118586725463915</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B314" t="b">
+        <v>1</v>
+      </c>
+      <c r="C314" t="n">
+        <v>1</v>
+      </c>
+      <c r="D314" t="b">
+        <v>1</v>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>['age', 'sex', 'smoking', 'anaemia', 'platelets']</t>
+        </is>
+      </c>
+      <c r="F314" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G314" t="n">
+        <v>100</v>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>df312</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
+        <v>0.5272039858653678</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.5555266171324832</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.5151361903879901</v>
+      </c>
+      <c r="L314" t="n">
+        <v>0.3469875287404992</v>
+      </c>
+      <c r="M314" t="n">
+        <v>0.7145697630928844</v>
+      </c>
+      <c r="N314" t="n">
+        <v>0.4444733828675168</v>
+      </c>
+      <c r="O314" t="n">
+        <v>0.4244370330973297</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B315" t="b">
+        <v>1</v>
+      </c>
+      <c r="C315" t="n">
+        <v>1</v>
+      </c>
+      <c r="D315" t="b">
+        <v>1</v>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>['age', 'sex', 'smoking', 'anaemia', 'serum_creatinine']</t>
+        </is>
+      </c>
+      <c r="F315" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G315" t="n">
+        <v>100</v>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>df313</t>
+        </is>
+      </c>
+      <c r="I315" t="n">
+        <v>0.6767089648007989</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.3941661835021125</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.8186823660219753</v>
+      </c>
+      <c r="L315" t="n">
+        <v>0.5280826818993972</v>
+      </c>
+      <c r="M315" t="n">
+        <v>0.7328243199623364</v>
+      </c>
+      <c r="N315" t="n">
+        <v>0.6058338164978876</v>
+      </c>
+      <c r="O315" t="n">
+        <v>0.4405359769380041</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B316" t="b">
+        <v>1</v>
+      </c>
+      <c r="C316" t="n">
+        <v>1</v>
+      </c>
+      <c r="D316" t="b">
+        <v>1</v>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>['age', 'sex', 'smoking', 'anaemia', 'serum_sodium']</t>
+        </is>
+      </c>
+      <c r="F316" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G316" t="n">
+        <v>100</v>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>df314</t>
+        </is>
+      </c>
+      <c r="I316" t="n">
+        <v>0.5562370365893905</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.5397232001479784</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.5682087994629574</v>
+      </c>
+      <c r="L316" t="n">
+        <v>0.3703196773172986</v>
+      </c>
+      <c r="M316" t="n">
+        <v>0.7263811733526104</v>
+      </c>
+      <c r="N316" t="n">
+        <v>0.4602767998520216</v>
+      </c>
+      <c r="O316" t="n">
+        <v>0.4322937098418817</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B317" t="b">
+        <v>1</v>
+      </c>
+      <c r="C317" t="n">
+        <v>1</v>
+      </c>
+      <c r="D317" t="b">
+        <v>1</v>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>['age', 'sex', 'smoking', 'creatinine_phosphokinase', 'diabetes']</t>
+        </is>
+      </c>
+      <c r="F317" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G317" t="n">
+        <v>100</v>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>df315</t>
+        </is>
+      </c>
+      <c r="I317" t="n">
+        <v>0.5400986001737772</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0.5242736979537886</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0.5501949311306524</v>
+      </c>
+      <c r="L317" t="n">
+        <v>0.3580172852261024</v>
+      </c>
+      <c r="M317" t="n">
+        <v>0.7077820567094963</v>
+      </c>
+      <c r="N317" t="n">
+        <v>0.4757263020462114</v>
+      </c>
+      <c r="O317" t="n">
+        <v>0.4211690332567717</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B318" t="b">
+        <v>1</v>
+      </c>
+      <c r="C318" t="n">
+        <v>1</v>
+      </c>
+      <c r="D318" t="b">
+        <v>1</v>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>['age', 'sex', 'smoking', 'creatinine_phosphokinase', 'ejection_fraction']</t>
+        </is>
+      </c>
+      <c r="F318" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G318" t="n">
+        <v>100</v>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>df316</t>
+        </is>
+      </c>
+      <c r="I318" t="n">
+        <v>0.6189237523720061</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.5123381526272057</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.6711459711639628</v>
+      </c>
+      <c r="L318" t="n">
+        <v>0.4297461106047468</v>
+      </c>
+      <c r="M318" t="n">
+        <v>0.7412094808675938</v>
+      </c>
+      <c r="N318" t="n">
+        <v>0.4876618473727944</v>
+      </c>
+      <c r="O318" t="n">
+        <v>0.4632270200198592</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B319" t="b">
+        <v>1</v>
+      </c>
+      <c r="C319" t="n">
+        <v>1</v>
+      </c>
+      <c r="D319" t="b">
+        <v>1</v>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>['age', 'sex', 'smoking', 'creatinine_phosphokinase', 'high_blood_pressure']</t>
+        </is>
+      </c>
+      <c r="F319" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G319" t="n">
+        <v>100</v>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>df317</t>
+        </is>
+      </c>
+      <c r="I319" t="n">
+        <v>0.5125022651402373</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.4603208517712993</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.5393713222076633</v>
+      </c>
+      <c r="L319" t="n">
+        <v>0.3211616779010512</v>
+      </c>
+      <c r="M319" t="n">
+        <v>0.6787564772670691</v>
+      </c>
+      <c r="N319" t="n">
+        <v>0.5396791482287007</v>
+      </c>
+      <c r="O319" t="n">
+        <v>0.3735704923666375</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B320" t="b">
+        <v>1</v>
+      </c>
+      <c r="C320" t="n">
+        <v>1</v>
+      </c>
+      <c r="D320" t="b">
+        <v>1</v>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>['age', 'sex', 'smoking', 'creatinine_phosphokinase', 'platelets']</t>
+        </is>
+      </c>
+      <c r="F320" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G320" t="n">
+        <v>100</v>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>df318</t>
+        </is>
+      </c>
+      <c r="I320" t="n">
+        <v>0.5747341032310943</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.5669536172986099</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.5807934292605043</v>
+      </c>
+      <c r="L320" t="n">
+        <v>0.3933912276059294</v>
+      </c>
+      <c r="M320" t="n">
+        <v>0.7376325763402494</v>
+      </c>
+      <c r="N320" t="n">
+        <v>0.4330463827013902</v>
+      </c>
+      <c r="O320" t="n">
+        <v>0.460187817936955</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B321" t="b">
+        <v>1</v>
+      </c>
+      <c r="C321" t="n">
+        <v>1</v>
+      </c>
+      <c r="D321" t="b">
+        <v>1</v>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>['age', 'sex', 'smoking', 'creatinine_phosphokinase', 'serum_creatinine']</t>
+        </is>
+      </c>
+      <c r="F321" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G321" t="n">
+        <v>100</v>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>df319</t>
+        </is>
+      </c>
+      <c r="I321" t="n">
+        <v>0.656709476667854</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.5631154985448457</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.702291591671473</v>
+      </c>
+      <c r="L321" t="n">
+        <v>0.4733993547248431</v>
+      </c>
+      <c r="M321" t="n">
+        <v>0.7733224389660449</v>
+      </c>
+      <c r="N321" t="n">
+        <v>0.4368845014551542</v>
+      </c>
+      <c r="O321" t="n">
+        <v>0.5101600084665225</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B322" t="b">
+        <v>1</v>
+      </c>
+      <c r="C322" t="n">
+        <v>1</v>
+      </c>
+      <c r="D322" t="b">
+        <v>1</v>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>['age', 'sex', 'smoking', 'creatinine_phosphokinase', 'serum_sodium']</t>
+        </is>
+      </c>
+      <c r="F322" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G322" t="n">
+        <v>100</v>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>df320</t>
+        </is>
+      </c>
+      <c r="I322" t="n">
+        <v>0.5945407292244882</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.6068201406363167</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.5898728885603477</v>
+      </c>
+      <c r="L322" t="n">
+        <v>0.41622345346216</v>
+      </c>
+      <c r="M322" t="n">
+        <v>0.758280489376171</v>
+      </c>
+      <c r="N322" t="n">
+        <v>0.3931798593636832</v>
+      </c>
+      <c r="O322" t="n">
+        <v>0.4901387920044964</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B323" t="b">
+        <v>1</v>
+      </c>
+      <c r="C323" t="n">
+        <v>1</v>
+      </c>
+      <c r="D323" t="b">
+        <v>1</v>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>['age', 'sex', 'smoking', 'diabetes', 'ejection_fraction']</t>
+        </is>
+      </c>
+      <c r="F323" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G323" t="n">
+        <v>100</v>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>df321</t>
+        </is>
+      </c>
+      <c r="I323" t="n">
+        <v>0.681918794319229</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.5042377847020065</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.7684821727373959</v>
+      </c>
+      <c r="L323" t="n">
+        <v>0.5065576671333439</v>
+      </c>
+      <c r="M323" t="n">
+        <v>0.7687714113047782</v>
+      </c>
+      <c r="N323" t="n">
+        <v>0.4957622152979935</v>
+      </c>
+      <c r="O323" t="n">
+        <v>0.4952521319018254</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B324" t="b">
+        <v>1</v>
+      </c>
+      <c r="C324" t="n">
+        <v>1</v>
+      </c>
+      <c r="D324" t="b">
+        <v>1</v>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>['age', 'sex', 'smoking', 'diabetes', 'high_blood_pressure']</t>
+        </is>
+      </c>
+      <c r="F324" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G324" t="n">
+        <v>100</v>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>df322</t>
+        </is>
+      </c>
+      <c r="I324" t="n">
+        <v>0.471129701723925</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.4398337773538904</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.4920644540243529</v>
+      </c>
+      <c r="L324" t="n">
+        <v>0.2884723433352807</v>
+      </c>
+      <c r="M324" t="n">
+        <v>0.6486678094001028</v>
+      </c>
+      <c r="N324" t="n">
+        <v>0.5601662226461096</v>
+      </c>
+      <c r="O324" t="n">
+        <v>0.3394078335237106</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B325" t="b">
+        <v>1</v>
+      </c>
+      <c r="C325" t="n">
+        <v>1</v>
+      </c>
+      <c r="D325" t="b">
+        <v>1</v>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>['age', 'sex', 'smoking', 'diabetes', 'platelets']</t>
+        </is>
+      </c>
+      <c r="F325" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G325" t="n">
+        <v>100</v>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>df323</t>
+        </is>
+      </c>
+      <c r="I325" t="n">
+        <v>0.5293873859017119</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.5358963471437697</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.5266485431208343</v>
+      </c>
+      <c r="L325" t="n">
+        <v>0.358309148370505</v>
+      </c>
+      <c r="M325" t="n">
+        <v>0.6981932424950476</v>
+      </c>
+      <c r="N325" t="n">
+        <v>0.4641036528562303</v>
+      </c>
+      <c r="O325" t="n">
+        <v>0.4263221636904156</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B326" t="b">
+        <v>1</v>
+      </c>
+      <c r="C326" t="n">
+        <v>1</v>
+      </c>
+      <c r="D326" t="b">
+        <v>1</v>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>['age', 'sex', 'smoking', 'diabetes', 'serum_creatinine']</t>
+        </is>
+      </c>
+      <c r="F326" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G326" t="n">
+        <v>100</v>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>df324</t>
+        </is>
+      </c>
+      <c r="I326" t="n">
+        <v>0.6667609751922747</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.3700102361125571</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.806761213344434</v>
+      </c>
+      <c r="L326" t="n">
+        <v>0.4845200466495935</v>
+      </c>
+      <c r="M326" t="n">
+        <v>0.731050580241512</v>
+      </c>
+      <c r="N326" t="n">
+        <v>0.6299897638874429</v>
+      </c>
+      <c r="O326" t="n">
+        <v>0.4131751018462361</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B327" t="b">
+        <v>1</v>
+      </c>
+      <c r="C327" t="n">
+        <v>1</v>
+      </c>
+      <c r="D327" t="b">
+        <v>1</v>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>['age', 'sex', 'smoking', 'diabetes', 'serum_sodium']</t>
+        </is>
+      </c>
+      <c r="F327" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G327" t="n">
+        <v>100</v>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>df325</t>
+        </is>
+      </c>
+      <c r="I327" t="n">
+        <v>0.5445919519784321</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.4728593330968879</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.5815007093454683</v>
+      </c>
+      <c r="L327" t="n">
+        <v>0.3501607695848137</v>
+      </c>
+      <c r="M327" t="n">
+        <v>0.7010304465895827</v>
+      </c>
+      <c r="N327" t="n">
+        <v>0.527140666903112</v>
+      </c>
+      <c r="O327" t="n">
+        <v>0.3958339042462475</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B328" t="b">
+        <v>1</v>
+      </c>
+      <c r="C328" t="n">
+        <v>1</v>
+      </c>
+      <c r="D328" t="b">
+        <v>1</v>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>['age', 'sex', 'smoking', 'ejection_fraction', 'high_blood_pressure']</t>
+        </is>
+      </c>
+      <c r="F328" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G328" t="n">
+        <v>100</v>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>df326</t>
+        </is>
+      </c>
+      <c r="I328" t="n">
+        <v>0.6569512965124535</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.4684015513143167</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.7490467072536553</v>
+      </c>
+      <c r="L328" t="n">
+        <v>0.479481956950508</v>
+      </c>
+      <c r="M328" t="n">
+        <v>0.7482325349016068</v>
+      </c>
+      <c r="N328" t="n">
+        <v>0.5315984486856833</v>
+      </c>
+      <c r="O328" t="n">
+        <v>0.4626054240571015</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B329" t="b">
+        <v>1</v>
+      </c>
+      <c r="C329" t="n">
+        <v>1</v>
+      </c>
+      <c r="D329" t="b">
+        <v>1</v>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>['age', 'sex', 'smoking', 'ejection_fraction', 'platelets']</t>
+        </is>
+      </c>
+      <c r="F329" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G329" t="n">
+        <v>100</v>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>df327</t>
+        </is>
+      </c>
+      <c r="I329" t="n">
+        <v>0.6212332146911596</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0.5286182756294673</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.6677373842744404</v>
+      </c>
+      <c r="L329" t="n">
+        <v>0.4365252103579079</v>
+      </c>
+      <c r="M329" t="n">
+        <v>0.7452047278507314</v>
+      </c>
+      <c r="N329" t="n">
+        <v>0.4713817243705327</v>
+      </c>
+      <c r="O329" t="n">
+        <v>0.4740507661556267</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B330" t="b">
+        <v>1</v>
+      </c>
+      <c r="C330" t="n">
+        <v>1</v>
+      </c>
+      <c r="D330" t="b">
+        <v>1</v>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>['age', 'sex', 'smoking', 'ejection_fraction', 'serum_creatinine']</t>
+        </is>
+      </c>
+      <c r="F330" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G330" t="n">
+        <v>100</v>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>df328</t>
+        </is>
+      </c>
+      <c r="I330" t="n">
+        <v>0.7138593449945014</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.6377253156800492</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.7530064108852389</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0.5626588483224952</v>
+      </c>
+      <c r="M330" t="n">
+        <v>0.8086551949181551</v>
+      </c>
+      <c r="N330" t="n">
+        <v>0.3622746843199508</v>
+      </c>
+      <c r="O330" t="n">
+        <v>0.5927116493447452</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B331" t="b">
+        <v>1</v>
+      </c>
+      <c r="C331" t="n">
+        <v>1</v>
+      </c>
+      <c r="D331" t="b">
+        <v>1</v>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>['age', 'sex', 'smoking', 'ejection_fraction', 'serum_sodium']</t>
+        </is>
+      </c>
+      <c r="F331" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G331" t="n">
+        <v>100</v>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>df329</t>
+        </is>
+      </c>
+      <c r="I331" t="n">
+        <v>0.6250270770419172</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.5545843576563185</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.6588641564289701</v>
+      </c>
+      <c r="L331" t="n">
+        <v>0.4299019166106216</v>
+      </c>
+      <c r="M331" t="n">
+        <v>0.761806268739159</v>
+      </c>
+      <c r="N331" t="n">
+        <v>0.4454156423436816</v>
+      </c>
+      <c r="O331" t="n">
+        <v>0.4804561636911066</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B332" t="b">
+        <v>1</v>
+      </c>
+      <c r="C332" t="n">
+        <v>1</v>
+      </c>
+      <c r="D332" t="b">
+        <v>1</v>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>['age', 'sex', 'smoking', 'high_blood_pressure', 'platelets']</t>
+        </is>
+      </c>
+      <c r="F332" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G332" t="n">
+        <v>100</v>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>df330</t>
+        </is>
+      </c>
+      <c r="I332" t="n">
+        <v>0.5179338339319829</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.5144254495129968</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.5208889738909042</v>
+      </c>
+      <c r="L332" t="n">
+        <v>0.3408308265210952</v>
+      </c>
+      <c r="M332" t="n">
+        <v>0.6908356656444751</v>
+      </c>
+      <c r="N332" t="n">
+        <v>0.4855745504870031</v>
+      </c>
+      <c r="O332" t="n">
+        <v>0.4070102470312799</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B333" t="b">
+        <v>1</v>
+      </c>
+      <c r="C333" t="n">
+        <v>1</v>
+      </c>
+      <c r="D333" t="b">
+        <v>1</v>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>['age', 'sex', 'smoking', 'high_blood_pressure', 'serum_creatinine']</t>
+        </is>
+      </c>
+      <c r="F333" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G333" t="n">
+        <v>100</v>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>df331</t>
+        </is>
+      </c>
+      <c r="I333" t="n">
+        <v>0.6790599840433704</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.3922826432618363</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.8177229959316965</v>
+      </c>
+      <c r="L333" t="n">
+        <v>0.5170009062817948</v>
+      </c>
+      <c r="M333" t="n">
+        <v>0.7386371477124604</v>
+      </c>
+      <c r="N333" t="n">
+        <v>0.6077173567381637</v>
+      </c>
+      <c r="O333" t="n">
+        <v>0.4365540793535498</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B334" t="b">
+        <v>1</v>
+      </c>
+      <c r="C334" t="n">
+        <v>1</v>
+      </c>
+      <c r="D334" t="b">
+        <v>1</v>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>['age', 'sex', 'smoking', 'high_blood_pressure', 'serum_sodium']</t>
+        </is>
+      </c>
+      <c r="F334" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G334" t="n">
+        <v>100</v>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>df332</t>
+        </is>
+      </c>
+      <c r="I334" t="n">
+        <v>0.5703364832152595</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.5307118999141662</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.5911636142694731</v>
+      </c>
+      <c r="L334" t="n">
+        <v>0.3795817816383015</v>
+      </c>
+      <c r="M334" t="n">
+        <v>0.7291261482952416</v>
+      </c>
+      <c r="N334" t="n">
+        <v>0.4692881000858336</v>
+      </c>
+      <c r="O334" t="n">
+        <v>0.4372409276937541</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B335" t="b">
+        <v>1</v>
+      </c>
+      <c r="C335" t="n">
+        <v>1</v>
+      </c>
+      <c r="D335" t="b">
+        <v>1</v>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>['age', 'sex', 'smoking', 'platelets', 'serum_creatinine']</t>
+        </is>
+      </c>
+      <c r="F335" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G335" t="n">
+        <v>100</v>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>df333</t>
+        </is>
+      </c>
+      <c r="I335" t="n">
+        <v>0.6299389003245335</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.5331457746689171</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0.6755907301706423</v>
+      </c>
+      <c r="L335" t="n">
+        <v>0.4365527159495411</v>
+      </c>
+      <c r="M335" t="n">
+        <v>0.7554164956776368</v>
+      </c>
+      <c r="N335" t="n">
+        <v>0.4668542253310829</v>
+      </c>
+      <c r="O335" t="n">
+        <v>0.4766666015257667</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B336" t="b">
+        <v>1</v>
+      </c>
+      <c r="C336" t="n">
+        <v>1</v>
+      </c>
+      <c r="D336" t="b">
+        <v>1</v>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>['age', 'sex', 'smoking', 'platelets', 'serum_sodium']</t>
+        </is>
+      </c>
+      <c r="F336" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G336" t="n">
+        <v>100</v>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>df334</t>
+        </is>
+      </c>
+      <c r="I336" t="n">
+        <v>0.5791025989870361</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.5696827533778999</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0.5858426569698586</v>
+      </c>
+      <c r="L336" t="n">
+        <v>0.389881105123526</v>
+      </c>
+      <c r="M336" t="n">
+        <v>0.7471070938261475</v>
+      </c>
+      <c r="N336" t="n">
+        <v>0.4303172466221001</v>
+      </c>
+      <c r="O336" t="n">
+        <v>0.4586627593497695</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B337" t="b">
+        <v>1</v>
+      </c>
+      <c r="C337" t="n">
+        <v>1</v>
+      </c>
+      <c r="D337" t="b">
+        <v>1</v>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>['age', 'sex', 'smoking', 'serum_creatinine', 'serum_sodium']</t>
+        </is>
+      </c>
+      <c r="F337" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G337" t="n">
+        <v>100</v>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>df335</t>
+        </is>
+      </c>
+      <c r="I337" t="n">
+        <v>0.6260191265544222</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.5352582847680746</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.670037249716805</v>
+      </c>
+      <c r="L337" t="n">
+        <v>0.4323544250933153</v>
+      </c>
+      <c r="M337" t="n">
+        <v>0.7553859306655726</v>
+      </c>
+      <c r="N337" t="n">
+        <v>0.4647417152319255</v>
+      </c>
+      <c r="O337" t="n">
+        <v>0.4737765026515289</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
